--- a/2017 Reisen/toskana/Kalkulation 2017.xlsx
+++ b/2017 Reisen/toskana/Kalkulation 2017.xlsx
@@ -5,15 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lutz/Documents/Stessaonda/toskana/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lutz/Documents/Stessaonda/cycling-adventures.org/2017 Reisen/toskana/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Toskana 2017" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Toskana 2017'!$A$1:$I$28</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
   <si>
     <t>Anzahl Nächte</t>
   </si>
@@ -71,9 +74,6 @@
     <t>EINNAHMEN</t>
   </si>
   <si>
-    <t>Preis Radraum</t>
-  </si>
-  <si>
     <t>Radraum</t>
   </si>
   <si>
@@ -198,6 +198,33 @@
   </si>
   <si>
     <t>Rabatte</t>
+  </si>
+  <si>
+    <t>FIX</t>
+  </si>
+  <si>
+    <t>pro Tag</t>
+  </si>
+  <si>
+    <t>Pro Kunde</t>
+  </si>
+  <si>
+    <t>Pro Person</t>
+  </si>
+  <si>
+    <t>Kunde/Tag</t>
+  </si>
+  <si>
+    <t>Fahrzeugmiete</t>
+  </si>
+  <si>
+    <t>Sonstiges</t>
+  </si>
+  <si>
+    <t>Benzin/Diesel</t>
+  </si>
+  <si>
+    <t>Position</t>
   </si>
 </sst>
 </file>
@@ -210,7 +237,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ [$€-407];[Red]\-#,##0.00\ [$€-407]"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -252,8 +279,29 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,12 +316,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -282,6 +348,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -289,6 +383,68 @@
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -297,9 +453,7 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -310,7 +464,35 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -323,48 +505,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -643,10 +880,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P47"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -654,609 +894,777 @@
     <col min="1" max="1" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="6" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.83203125" style="1"/>
     <col min="12" max="12" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="73">
+        <f>SUM(B4:B7)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="62">
+        <v>7</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="74">
+        <f>B8-B4-B6</f>
+        <v>16</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="62">
+        <v>7</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="47">
+        <f>I2*C8*B2/2</f>
+        <v>5264</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="74">
+        <f>B9-B5-B7</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="62">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="47">
+        <f>I3*C9*B2</f>
+        <v>3024</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="74">
+        <f>B10</f>
+        <v>6</v>
+      </c>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="62">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="47">
+        <f>I4*B2*C10/2</f>
+        <v>2604</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="74">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="62">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="47">
+        <f>I5*B2*C11</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="74">
+        <f>SUM(I2:I5)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="62">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="49">
+        <f>I6*C12*B2</f>
+        <v>5292</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="76">
+        <f>I6+I1</f>
+        <v>32</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="10">
+        <v>19</v>
+      </c>
+      <c r="C8" s="14">
+        <v>94</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="51">
+        <f>B2*B4*C8/2</f>
+        <v>987</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="34"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="10">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14">
+        <v>72</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="51">
+        <f>B5*C9*B2</f>
+        <v>504</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="34"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B10" s="10">
+        <v>6</v>
+      </c>
+      <c r="C10" s="14">
+        <v>124</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="51">
+        <f>I1*C12*B2</f>
+        <v>756</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="34"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="51">
+        <f>C15</f>
+        <v>100</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="14">
+        <v>27</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="51">
+        <f>C16</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="31"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="11">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="C13" s="17">
+        <v>105</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="51">
+        <f>C17</f>
         <v>0</v>
       </c>
-      <c r="B2" s="4">
-        <v>7</v>
-      </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>7</v>
-      </c>
-      <c r="E3" s="22" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="34"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="11">
+        <v>4</v>
+      </c>
+      <c r="C14" s="17">
+        <v>50</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="51">
+        <f>C18</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="23">
-        <f>B23*C8*B2/2</f>
-        <v>5264</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="12">
-        <f>B23*B34</f>
+      <c r="I14" s="34">
+        <f>I2*F25</f>
         <v>15440</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="22" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="14">
+        <v>100</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="51">
+        <f>C20*(B5+B4)*B2</f>
+        <v>980</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="23">
-        <f>B24*C9*B2</f>
-        <v>3024</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="12">
-        <f>B24*B35</f>
+      <c r="I15" s="34">
+        <f>I3*F26</f>
         <v>6840</v>
       </c>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="22" t="s">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="51">
+        <f>C19*(B6+B7)*B2</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="34">
+        <f>I4*F27</f>
+        <v>6420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="51">
+        <f>C21*I6</f>
+        <v>140</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="23">
-        <f>B25*B2*C10/2</f>
-        <v>2604</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="12">
-        <f>B25*B36</f>
-        <v>6420</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="I17" s="34">
+        <f>I5*F28</f>
         <v>0</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="23">
-        <f>B26*B2*C11</f>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="14">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="12">
-        <f>B26*B37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="25">
-        <f>B27*C12*B2</f>
-        <v>5292</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="12">
+      <c r="D18" s="33"/>
+      <c r="E18" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="51">
+        <f>(B8+B9)*C22</f>
+        <v>182</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="53">
         <f>-B13*C13-B14*C14</f>
         <v>-1040</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="8">
-        <v>19</v>
-      </c>
-      <c r="C8" s="19">
-        <v>94</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="25">
-        <f>B2*B4*C8/2</f>
-        <v>987</v>
-      </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="8">
-        <v>7</v>
-      </c>
-      <c r="C9" s="19">
-        <v>72</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="25">
-        <f>B5*C9*B2</f>
-        <v>504</v>
-      </c>
-      <c r="M9" s="21"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="8">
-        <v>6</v>
-      </c>
-      <c r="C10" s="19">
-        <v>124</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="25">
-        <f>B22*C12*B2</f>
-        <v>756</v>
-      </c>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="25">
-        <f>C15</f>
+    </row>
+    <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="21">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="19">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="25">
-        <f>B17*(B5+B4)*B2</f>
-        <v>980</v>
-      </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="10">
-        <v>8</v>
-      </c>
-      <c r="C13" s="20">
-        <v>105</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="24" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="25">
-        <f>B16*(B6+B7)*B2</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="10">
-        <v>4</v>
-      </c>
-      <c r="C14" s="20">
-        <v>50</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="26"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="19">
-        <v>100</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="15">
-        <v>100</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="25">
-        <f>B18*B27</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="15">
+      <c r="F19" s="45">
+        <f>SUM(F3:F18)</f>
+        <v>19833</v>
+      </c>
+      <c r="G19" s="63"/>
+      <c r="H19" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="45">
+        <f>SUM(I14:I18)</f>
+        <v>27660</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="21">
         <v>35</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="25">
-        <f>(B8+B9)*B19</f>
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="15">
+      <c r="D20" s="33"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="21">
         <v>5</v>
       </c>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="15">
-        <v>7</v>
-      </c>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="16">
-        <v>40</v>
-      </c>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="30">
-        <f>SUM(F3:F20)</f>
-        <v>19833</v>
-      </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="32">
-        <f>SUM(I3:I20)</f>
-        <v>27660</v>
-      </c>
-      <c r="L21" s="21"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="5">
-        <f>SUM(B4:B7)</f>
-        <v>4</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="5">
-        <f>B8-B4</f>
-        <v>16</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5">
-        <f>B9-B5</f>
-        <v>6</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="14">
+      <c r="D21" s="20"/>
+      <c r="E21" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="55">
         <f>SUM(F3:F6,F8,F9)+C15</f>
         <v>12483</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="13">
-        <f>I21-F21</f>
+      <c r="G21" s="22"/>
+      <c r="H21" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="43">
+        <f>I19-F19</f>
         <v>7827</v>
       </c>
-      <c r="L24" s="12"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="5">
-        <f>B10</f>
-        <v>6</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="14">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="21">
+        <v>7</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="49">
         <f>SUM(F7,F10)</f>
         <v>6048</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="13">
-        <f>I24/B27/B2</f>
+      <c r="G22" s="22"/>
+      <c r="H22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="44">
+        <f>IF(I6&gt;0,I21/I6/B2,0)</f>
         <v>39.933673469387756</v>
       </c>
     </row>
+    <row r="23" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="71">
+        <v>40</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="45">
+        <f>SUM(F21:F22)</f>
+        <v>18531</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="45"/>
+    </row>
+    <row r="24" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="34"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="28">
+        <f>IF(I2&lt;&gt;0,(F3/I2)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
+        <v>965.46428571428567</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="29">
+        <v>965</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
+    </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="32">
+        <f>IF(I3&lt;&gt;0,(F4/I3)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
+        <v>1140.4642857142856</v>
+      </c>
+      <c r="C26" s="68"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="12">
+        <v>1140</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="32">
+        <f>IF(I4&lt;&gt;0,(F5/I4)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
+        <v>1070.4642857142856</v>
+      </c>
+      <c r="C27" s="69"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="12">
+        <v>1070</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="34"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="5">
-        <f>B11</f>
+      <c r="B28" s="35">
+        <f>IF(I5&lt;&gt;0,(F6/I5)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="C28" s="70"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="36">
+        <v>0</v>
+      </c>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="38"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="64"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="64"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="64"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="64"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C37" s="7"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C38" s="7"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C39" s="9"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C40" s="9"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="7"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E42" s="2"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F48" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="14">
-        <f>SUM(F24:F25)</f>
-        <v>18531</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="13"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="5">
-        <f>SUM(B23:B26)</f>
-        <v>28</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="5">
-        <f>B27+B22</f>
-        <v>32</v>
-      </c>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="28">
-        <f>IF(B23&lt;&gt;0,(F3/B23)+(SUM($F$7:$F$17)/$B$27)+($B$20*$B$2)-$I$7/$B$27,0)</f>
-        <v>965.46428571428567</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="28">
-        <f>IF(B24&lt;&gt;0,(F4/B24)+(SUM($F$7:$F$17)/$B$27)+($B$20*$B$2)-$I$7/$B$27,0)</f>
-        <v>1140.4642857142856</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="28">
-        <f>IF(B25&lt;&gt;0,(F5/B25)+(SUM($F$7:$F$17)/$B$27)+($B$20*$B$2)-$I$7/$B$27,0)</f>
-        <v>1070.4642857142856</v>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="28">
-        <f>IF(B26&lt;&gt;0,(F6/B26)+(SUM($F$7:$F$17)/$B$27)+($B$20*$B$2)-$I$7/$B$27,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="17"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="18">
-        <v>965</v>
-      </c>
-      <c r="C34" s="17"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="18">
-        <v>1140</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="18">
-        <v>1070</v>
-      </c>
-      <c r="C36" s="27"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="14"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="27"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="17"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="2"/>
-      <c r="F39" s="14"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F45" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F47" s="1"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F50" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri,Standard"&amp;14&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Standard"&amp;10&amp;K000000Druckdatum: &amp;D</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/2017 Reisen/toskana/Kalkulation 2017.xlsx
+++ b/2017 Reisen/toskana/Kalkulation 2017.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lutz/Documents/Stessaonda/cycling-adventures.org/2017 Reisen/toskana/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LuGol/Documents/Stessaonda/cycling-adventures.org/2017 Reisen/toskana/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="28680" yWindow="4640" windowWidth="14780" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Toskana 2017" sheetId="1" r:id="rId1"/>
@@ -886,7 +886,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -946,7 +946,7 @@
       </c>
       <c r="I2" s="74">
         <f>B8-B4-B6</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -966,7 +966,7 @@
       </c>
       <c r="F3" s="47">
         <f>I2*C8*B2/2</f>
-        <v>5264</v>
+        <v>5922</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="60" t="s">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="I6" s="74">
         <f>SUM(I2:I5)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="F7" s="49">
         <f>I6*C12*B2</f>
-        <v>5292</v>
+        <v>5670</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="75" t="s">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="I7" s="76">
         <f>I6+I1</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -1086,7 +1086,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="14">
         <v>94</v>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="I14" s="34">
         <f>I2*F25</f>
-        <v>15440</v>
+        <v>17370</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="F17" s="51">
         <f>C21*I6</f>
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="19" t="s">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="F18" s="51">
         <f>(B8+B9)*C22</f>
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="52" t="s">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="F19" s="45">
         <f>SUM(F3:F18)</f>
-        <v>19833</v>
+        <v>20893</v>
       </c>
       <c r="G19" s="63"/>
       <c r="H19" s="42" t="s">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="I19" s="45">
         <f>SUM(I14:I18)</f>
-        <v>27660</v>
+        <v>29590</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="F21" s="55">
         <f>SUM(F3:F6,F8,F9)+C15</f>
-        <v>12483</v>
+        <v>13141</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="39" t="s">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="I21" s="43">
         <f>I19-F19</f>
-        <v>7827</v>
+        <v>8697</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="F22" s="49">
         <f>SUM(F7,F10)</f>
-        <v>6048</v>
+        <v>6426</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="18" t="s">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="I22" s="44">
         <f>IF(I6&gt;0,I21/I6/B2,0)</f>
-        <v>39.933673469387756</v>
+        <v>41.414285714285711</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="F23" s="45">
         <f>SUM(F21:F22)</f>
-        <v>18531</v>
+        <v>19567</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="42"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B25" s="28">
         <f>IF(I2&lt;&gt;0,(F3/I2)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>965.46428571428567</v>
+        <v>955.1</v>
       </c>
       <c r="C25" s="67"/>
       <c r="D25" s="20"/>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B26" s="32">
         <f>IF(I3&lt;&gt;0,(F4/I3)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>1140.4642857142856</v>
+        <v>1130.1000000000001</v>
       </c>
       <c r="C26" s="68"/>
       <c r="D26" s="20"/>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B27" s="32">
         <f>IF(I4&lt;&gt;0,(F5/I4)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>1070.4642857142856</v>
+        <v>1060.1000000000001</v>
       </c>
       <c r="C27" s="69"/>
       <c r="D27" s="20"/>

--- a/2017 Reisen/toskana/Kalkulation 2017.xlsx
+++ b/2017 Reisen/toskana/Kalkulation 2017.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LuGol/Documents/Stessaonda/cycling-adventures.org/2017 Reisen/toskana/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LuGol/Documents/SourceTree/cycling-adventures.org/2017 Reisen/toskana/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4640" windowWidth="14780" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="1680" yWindow="460" windowWidth="34000" windowHeight="24260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Toskana 2017" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,11 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Toskana 2017'!$A$1:$I$28</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>Anzahl Nächte</t>
   </si>
@@ -164,27 +167,12 @@
     <t>Preis</t>
   </si>
   <si>
-    <t>Anzahl DZ Kat. 2</t>
-  </si>
-  <si>
-    <t>Anzahl EZ Kat. 2</t>
-  </si>
-  <si>
-    <t>DZ Kat 2 Preis (err.)</t>
-  </si>
-  <si>
     <t>DZ Kat 2</t>
   </si>
   <si>
     <t>EZ Kat 2</t>
   </si>
   <si>
-    <t>Anzahl Gäste DZ Kat 2</t>
-  </si>
-  <si>
-    <t>Anzahl Gäste EZ Kat 2</t>
-  </si>
-  <si>
     <t>EZ Kat 2 Preis (err.)</t>
   </si>
   <si>
@@ -225,6 +213,18 @@
   </si>
   <si>
     <t>Position</t>
+  </si>
+  <si>
+    <t>Anzahl 3BZ</t>
+  </si>
+  <si>
+    <t>3BZ</t>
+  </si>
+  <si>
+    <t>Anzahl Gäste 3BZ</t>
+  </si>
+  <si>
+    <t>3BZ Preis (errechnet)</t>
   </si>
 </sst>
 </file>
@@ -886,7 +886,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -907,7 +907,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B1" s="78" t="s">
         <v>43</v>
@@ -926,7 +926,7 @@
       </c>
       <c r="I1" s="73">
         <f>SUM(B4:B7)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -946,7 +946,7 @@
       </c>
       <c r="I2" s="74">
         <f>B8-B4-B6</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -966,7 +966,7 @@
       </c>
       <c r="F3" s="47">
         <f>I2*C8*B2/2</f>
-        <v>5922</v>
+        <v>7238</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="60" t="s">
@@ -982,7 +982,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="20"/>
@@ -995,11 +995,11 @@
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="60" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I4" s="74">
         <f>B10</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M4" s="5"/>
     </row>
@@ -1013,15 +1013,15 @@
       <c r="C5" s="13"/>
       <c r="D5" s="20"/>
       <c r="E5" s="46" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F5" s="47">
-        <f>I4*B2*C10/2</f>
-        <v>2604</v>
+        <f>I4*B2*C10/3</f>
+        <v>840</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="60" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I5" s="74">
         <f>B11</f>
@@ -1037,9 +1037,7 @@
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="46" t="s">
-        <v>49</v>
-      </c>
+      <c r="E6" s="46"/>
       <c r="F6" s="47">
         <f>I5*B2*C11</f>
         <v>0</v>
@@ -1050,7 +1048,7 @@
       </c>
       <c r="I6" s="74">
         <f>SUM(I2:I5)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1067,7 +1065,7 @@
       </c>
       <c r="F7" s="49">
         <f>I6*C12*B2</f>
-        <v>5670</v>
+        <v>5859</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="75" t="s">
@@ -1086,7 +1084,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="10">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" s="14">
         <v>94</v>
@@ -1097,7 +1095,7 @@
       </c>
       <c r="F8" s="51">
         <f>B2*B4*C8/2</f>
-        <v>987</v>
+        <v>658</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="19"/>
@@ -1132,13 +1130,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="57" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B10" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" s="14">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="50" t="s">
@@ -1146,7 +1144,7 @@
       </c>
       <c r="F10" s="51">
         <f>I1*C12*B2</f>
-        <v>756</v>
+        <v>567</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="19"/>
@@ -1155,7 +1153,7 @@
     </row>
     <row r="11" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11" s="10">
         <v>0</v>
@@ -1180,14 +1178,14 @@
         <v>3</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C12" s="14">
         <v>27</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="50" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F12" s="51">
         <f>C16</f>
@@ -1206,14 +1204,14 @@
         <v>41</v>
       </c>
       <c r="B13" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" s="17">
         <v>105</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="50" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F13" s="51">
         <f>C17</f>
@@ -1229,14 +1227,14 @@
         <v>42</v>
       </c>
       <c r="B14" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C14" s="17">
         <v>50</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="50" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F14" s="51">
         <f>C18</f>
@@ -1248,7 +1246,7 @@
       </c>
       <c r="I14" s="34">
         <f>I2*F25</f>
-        <v>17370</v>
+        <v>20350</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1256,18 +1254,18 @@
         <v>15</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C15" s="14">
         <v>100</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="50" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F15" s="51">
         <f>C20*(B5+B4)*B2</f>
-        <v>980</v>
+        <v>735</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="19" t="s">
@@ -1275,15 +1273,15 @@
       </c>
       <c r="I15" s="34">
         <f>I3*F26</f>
-        <v>6840</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="59" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C16" s="14">
         <v>0</v>
@@ -1298,19 +1296,19 @@
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I16" s="34">
         <f>I4*F27</f>
-        <v>6420</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="59" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C17" s="14">
         <v>0</v>
@@ -1321,11 +1319,11 @@
       </c>
       <c r="F17" s="51">
         <f>C21*I6</f>
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I17" s="34">
         <f>I5*F28</f>
@@ -1334,10 +1332,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="59" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C18" s="14">
         <v>0</v>
@@ -1348,15 +1346,15 @@
       </c>
       <c r="F18" s="51">
         <f>(B8+B9)*C22</f>
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="52" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I18" s="53">
         <f>-B13*C13-B14*C14</f>
-        <v>-1040</v>
+        <v>-630</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1364,7 +1362,7 @@
         <v>40</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C19" s="21">
         <v>100</v>
@@ -1375,7 +1373,7 @@
       </c>
       <c r="F19" s="45">
         <f>SUM(F3:F18)</f>
-        <v>20893</v>
+        <v>19897</v>
       </c>
       <c r="G19" s="63"/>
       <c r="H19" s="42" t="s">
@@ -1383,7 +1381,7 @@
       </c>
       <c r="I19" s="45">
         <f>SUM(I14:I18)</f>
-        <v>29590</v>
+        <v>28600</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1391,7 +1389,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C20" s="21">
         <v>35</v>
@@ -1408,7 +1406,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C21" s="21">
         <v>5</v>
@@ -1419,7 +1417,7 @@
       </c>
       <c r="F21" s="55">
         <f>SUM(F3:F6,F8,F9)+C15</f>
-        <v>13141</v>
+        <v>12364</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="39" t="s">
@@ -1427,7 +1425,7 @@
       </c>
       <c r="I21" s="43">
         <f>I19-F19</f>
-        <v>8697</v>
+        <v>8703</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1435,7 +1433,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C22" s="21">
         <v>7</v>
@@ -1454,7 +1452,7 @@
       </c>
       <c r="I22" s="44">
         <f>IF(I6&gt;0,I21/I6/B2,0)</f>
-        <v>41.414285714285711</v>
+        <v>40.105990783410142</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1462,7 +1460,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C23" s="71">
         <v>40</v>
@@ -1473,7 +1471,7 @@
       </c>
       <c r="F23" s="45">
         <f>SUM(F21:F22)</f>
-        <v>19567</v>
+        <v>18790</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="42"/>
@@ -1497,7 +1495,7 @@
       </c>
       <c r="B25" s="28">
         <f>IF(I2&lt;&gt;0,(F3/I2)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>955.1</v>
+        <v>913.03225806451621</v>
       </c>
       <c r="C25" s="67"/>
       <c r="D25" s="20"/>
@@ -1505,7 +1503,7 @@
         <v>27</v>
       </c>
       <c r="F25" s="29">
-        <v>965</v>
+        <v>925</v>
       </c>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
@@ -1517,7 +1515,7 @@
       </c>
       <c r="B26" s="32">
         <f>IF(I3&lt;&gt;0,(F4/I3)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>1130.1000000000001</v>
+        <v>1088.0322580645161</v>
       </c>
       <c r="C26" s="68"/>
       <c r="D26" s="20"/>
@@ -1525,7 +1523,7 @@
         <v>28</v>
       </c>
       <c r="F26" s="12">
-        <v>1140</v>
+        <v>1045</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
@@ -1533,19 +1531,19 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B27" s="32">
         <f>IF(I4&lt;&gt;0,(F5/I4)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>1060.1000000000001</v>
+        <v>864.03225806451621</v>
       </c>
       <c r="C27" s="69"/>
       <c r="D27" s="20"/>
       <c r="E27" s="65" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F27" s="12">
-        <v>1070</v>
+        <v>870</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
@@ -1554,7 +1552,7 @@
     </row>
     <row r="28" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B28" s="35">
         <f>IF(I5&lt;&gt;0,(F6/I5)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
@@ -1563,7 +1561,7 @@
       <c r="C28" s="70"/>
       <c r="D28" s="37"/>
       <c r="E28" s="66" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F28" s="36">
         <v>0</v>
@@ -1658,7 +1656,7 @@
       <c r="F50" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/2017 Reisen/toskana/Kalkulation 2017.xlsx
+++ b/2017 Reisen/toskana/Kalkulation 2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="460" windowWidth="34000" windowHeight="24260" tabRatio="500"/>
+    <workbookView xWindow="12280" yWindow="1960" windowWidth="34000" windowHeight="24260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Toskana 2017" sheetId="1" r:id="rId1"/>
@@ -886,7 +886,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -946,7 +946,7 @@
       </c>
       <c r="I2" s="74">
         <f>B8-B4-B6</f>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -966,7 +966,7 @@
       </c>
       <c r="F3" s="47">
         <f>I2*C8*B2/2</f>
-        <v>7238</v>
+        <v>3290</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="60" t="s">
@@ -974,7 +974,7 @@
       </c>
       <c r="I3" s="74">
         <f>B9-B5-B7</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -991,7 +991,7 @@
       </c>
       <c r="F4" s="47">
         <f>I3*C9*B2</f>
-        <v>3024</v>
+        <v>0</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="60" t="s">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="F5" s="47">
         <f>I4*B2*C10/3</f>
-        <v>840</v>
+        <v>875</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="60" t="s">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="I6" s="74">
         <f>SUM(I2:I5)</f>
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="F7" s="49">
         <f>I6*C12*B2</f>
-        <v>5859</v>
+        <v>2457</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="75" t="s">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="I7" s="76">
         <f>I6+I1</f>
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -1084,7 +1084,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="10">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C8" s="14">
         <v>94</v>
@@ -1110,7 +1110,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9" s="14">
         <v>72</v>
@@ -1136,7 +1136,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="14">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="50" t="s">
@@ -1227,10 +1227,10 @@
         <v>42</v>
       </c>
       <c r="B14" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C14" s="17">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="50" t="s">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="I14" s="34">
         <f>I2*F25</f>
-        <v>20350</v>
+        <v>9250</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I15" s="34">
         <f>I3*F26</f>
-        <v>6270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="F17" s="51">
         <f>C21*I6</f>
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="19" t="s">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="F18" s="51">
         <f>(B8+B9)*C22</f>
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="52" t="s">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="I18" s="53">
         <f>-B13*C13-B14*C14</f>
-        <v>-630</v>
+        <v>-870</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="F19" s="45">
         <f>SUM(F3:F18)</f>
-        <v>19897</v>
+        <v>9342</v>
       </c>
       <c r="G19" s="63"/>
       <c r="H19" s="42" t="s">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I19" s="45">
         <f>SUM(I14:I18)</f>
-        <v>28600</v>
+        <v>10990</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="F21" s="55">
         <f>SUM(F3:F6,F8,F9)+C15</f>
-        <v>12364</v>
+        <v>5427</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="39" t="s">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="I21" s="43">
         <f>I19-F19</f>
-        <v>8703</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="F22" s="49">
         <f>SUM(F7,F10)</f>
-        <v>6426</v>
+        <v>3024</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="18" t="s">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="I22" s="44">
         <f>IF(I6&gt;0,I21/I6/B2,0)</f>
-        <v>40.105990783410142</v>
+        <v>18.109890109890109</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="F23" s="45">
         <f>SUM(F21:F22)</f>
-        <v>18790</v>
+        <v>8451</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="42"/>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="B25" s="28">
         <f>IF(I2&lt;&gt;0,(F3/I2)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>913.03225806451621</v>
+        <v>1074.1538461538462</v>
       </c>
       <c r="C25" s="67"/>
       <c r="D25" s="20"/>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B26" s="32">
         <f>IF(I3&lt;&gt;0,(F4/I3)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>1088.0322580645161</v>
+        <v>0</v>
       </c>
       <c r="C26" s="68"/>
       <c r="D26" s="20"/>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="B27" s="32">
         <f>IF(I4&lt;&gt;0,(F5/I4)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>864.03225806451621</v>
+        <v>1036.8205128205129</v>
       </c>
       <c r="C27" s="69"/>
       <c r="D27" s="20"/>

--- a/2017 Reisen/toskana/Kalkulation 2017.xlsx
+++ b/2017 Reisen/toskana/Kalkulation 2017.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>Anzahl Nächte</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Summe</t>
   </si>
   <si>
-    <t>Wo endet Gewinnzone?</t>
-  </si>
-  <si>
     <t>Guide Trikots</t>
   </si>
   <si>
@@ -167,21 +164,9 @@
     <t>Preis</t>
   </si>
   <si>
-    <t>DZ Kat 2</t>
-  </si>
-  <si>
     <t>EZ Kat 2</t>
   </si>
   <si>
-    <t>EZ Kat 2 Preis (err.)</t>
-  </si>
-  <si>
-    <t>DZ Kat 2 Preis</t>
-  </si>
-  <si>
-    <t>EZ Kat 2 Preis</t>
-  </si>
-  <si>
     <t>GuideLohn</t>
   </si>
   <si>
@@ -225,6 +210,18 @@
   </si>
   <si>
     <t>3BZ Preis (errechnet)</t>
+  </si>
+  <si>
+    <t>Orga</t>
+  </si>
+  <si>
+    <t>Extr. KAT Preis (err.)</t>
+  </si>
+  <si>
+    <t>Extr. Kat Preis</t>
+  </si>
+  <si>
+    <t>3BZ Preis</t>
   </si>
 </sst>
 </file>
@@ -301,7 +298,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,6 +335,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -505,7 +508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
@@ -602,6 +605,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -886,7 +898,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -907,13 +919,13 @@
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B1" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="79" t="s">
         <v>43</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>44</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="77" t="s">
@@ -946,7 +958,7 @@
       </c>
       <c r="I2" s="74">
         <f>B8-B4-B6</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -965,8 +977,8 @@
         <v>10</v>
       </c>
       <c r="F3" s="47">
-        <f>I2*C8*B2/2</f>
-        <v>3290</v>
+        <f>(I2)*C8*B2/2</f>
+        <v>3948</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="60" t="s">
@@ -978,7 +990,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="82" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="62">
@@ -990,12 +1002,12 @@
         <v>9</v>
       </c>
       <c r="F4" s="47">
-        <f>I3*C9*B2</f>
+        <f>(I3)*C9*B2</f>
         <v>0</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="60" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I4" s="74">
         <f>B10</f>
@@ -1004,7 +1016,7 @@
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="82" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="62">
@@ -1013,7 +1025,7 @@
       <c r="C5" s="13"/>
       <c r="D5" s="20"/>
       <c r="E5" s="46" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F5" s="47">
         <f>I4*B2*C10/3</f>
@@ -1029,7 +1041,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="62">
@@ -1048,11 +1060,11 @@
       </c>
       <c r="I6" s="74">
         <f>SUM(I2:I5)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="82" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="62">
@@ -1065,7 +1077,7 @@
       </c>
       <c r="F7" s="49">
         <f>I6*C12*B2</f>
-        <v>2457</v>
+        <v>2835</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="75" t="s">
@@ -1073,7 +1085,7 @@
       </c>
       <c r="I7" s="76">
         <f>I6+I1</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -1081,20 +1093,20 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="14">
         <v>94</v>
       </c>
       <c r="D8" s="20"/>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="51">
-        <f>B2*B4*C8/2</f>
+      <c r="F8" s="84">
+        <f>B2*(B4+B6)*C8/2</f>
         <v>658</v>
       </c>
       <c r="G8" s="20"/>
@@ -1107,7 +1119,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="10">
         <v>1</v>
@@ -1116,11 +1128,11 @@
         <v>72</v>
       </c>
       <c r="D9" s="33"/>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="51">
-        <f>B5*C9*B2</f>
+      <c r="F9" s="84">
+        <f>(B5+B7)*C9*B2</f>
         <v>504</v>
       </c>
       <c r="G9" s="20"/>
@@ -1130,7 +1142,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="57" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B10" s="10">
         <v>3</v>
@@ -1139,10 +1151,10 @@
         <v>125</v>
       </c>
       <c r="D10" s="33"/>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="84">
         <f>I1*C12*B2</f>
         <v>567</v>
       </c>
@@ -1153,7 +1165,7 @@
     </row>
     <row r="11" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="10">
         <v>0</v>
@@ -1178,14 +1190,14 @@
         <v>3</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C12" s="14">
         <v>27</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="50" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F12" s="51">
         <f>C16</f>
@@ -1201,7 +1213,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="11">
         <v>6</v>
@@ -1211,7 +1223,7 @@
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="50" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F13" s="51">
         <f>C17</f>
@@ -1224,7 +1236,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="11">
         <v>6</v>
@@ -1234,7 +1246,7 @@
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="50" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F14" s="51">
         <f>C18</f>
@@ -1246,7 +1258,7 @@
       </c>
       <c r="I14" s="34">
         <f>I2*F25</f>
-        <v>9250</v>
+        <v>11100</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1254,14 +1266,14 @@
         <v>15</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C15" s="14">
         <v>100</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="50" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F15" s="51">
         <f>C20*(B5+B4)*B2</f>
@@ -1278,10 +1290,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="59" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C16" s="14">
         <v>0</v>
@@ -1296,7 +1308,7 @@
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="19" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I16" s="34">
         <f>I4*F27</f>
@@ -1305,25 +1317,25 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="59" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C17" s="14">
         <v>0</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="51">
         <f>C21*I6</f>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I17" s="34">
         <f>I5*F28</f>
@@ -1332,10 +1344,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="59" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C18" s="14">
         <v>0</v>
@@ -1346,11 +1358,11 @@
       </c>
       <c r="F18" s="51">
         <f>(B8+B9)*C22</f>
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="52" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I18" s="53">
         <f>-B13*C13-B14*C14</f>
@@ -1359,10 +1371,10 @@
     </row>
     <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C19" s="21">
         <v>100</v>
@@ -1373,7 +1385,7 @@
       </c>
       <c r="F19" s="45">
         <f>SUM(F3:F18)</f>
-        <v>9342</v>
+        <v>10402</v>
       </c>
       <c r="G19" s="63"/>
       <c r="H19" s="42" t="s">
@@ -1381,15 +1393,15 @@
       </c>
       <c r="I19" s="45">
         <f>SUM(I14:I18)</f>
-        <v>10990</v>
+        <v>12840</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C20" s="21">
         <v>35</v>
@@ -1403,10 +1415,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C21" s="21">
         <v>5</v>
@@ -1417,7 +1429,7 @@
       </c>
       <c r="F21" s="55">
         <f>SUM(F3:F6,F8,F9)+C15</f>
-        <v>5427</v>
+        <v>6085</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="39" t="s">
@@ -1425,15 +1437,15 @@
       </c>
       <c r="I21" s="43">
         <f>I19-F19</f>
-        <v>1648</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C22" s="21">
         <v>7</v>
@@ -1444,7 +1456,7 @@
       </c>
       <c r="F22" s="49">
         <f>SUM(F7,F10)</f>
-        <v>3024</v>
+        <v>3402</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="18" t="s">
@@ -1452,7 +1464,7 @@
       </c>
       <c r="I22" s="44">
         <f>IF(I6&gt;0,I21/I6/B2,0)</f>
-        <v>18.109890109890109</v>
+        <v>23.219047619047618</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1460,7 +1472,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C23" s="71">
         <v>40</v>
@@ -1471,7 +1483,7 @@
       </c>
       <c r="F23" s="45">
         <f>SUM(F21:F22)</f>
-        <v>8451</v>
+        <v>9487</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="42"/>
@@ -1495,7 +1507,7 @@
       </c>
       <c r="B25" s="28">
         <f>IF(I2&lt;&gt;0,(F3/I2)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>1074.1538461538462</v>
+        <v>1038.9333333333334</v>
       </c>
       <c r="C25" s="67"/>
       <c r="D25" s="20"/>
@@ -1526,21 +1538,26 @@
         <v>1045</v>
       </c>
       <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="34"/>
+      <c r="H26" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="81">
+        <f>I21/2+F15/I1</f>
+        <v>1464</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B27" s="32">
         <f>IF(I4&lt;&gt;0,(F5/I4)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>1036.8205128205129</v>
+        <v>1001.6</v>
       </c>
       <c r="C27" s="69"/>
       <c r="D27" s="20"/>
       <c r="E27" s="65" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F27" s="12">
         <v>870</v>
@@ -1552,7 +1569,7 @@
     </row>
     <row r="28" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B28" s="35">
         <f>IF(I5&lt;&gt;0,(F6/I5)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
@@ -1561,7 +1578,7 @@
       <c r="C28" s="70"/>
       <c r="D28" s="37"/>
       <c r="E28" s="66" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F28" s="36">
         <v>0</v>
@@ -1643,11 +1660,6 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E42" s="2"/>
       <c r="F42" s="6"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F48" s="3" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F49" s="1"/>

--- a/2017 Reisen/toskana/Kalkulation 2017.xlsx
+++ b/2017 Reisen/toskana/Kalkulation 2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LuGol/Documents/SourceTree/cycling-adventures.org/2017 Reisen/toskana/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/T3-Extern/SourceTree/cycling-adventures.org/2017 Reisen/toskana/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -898,7 +898,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1216,7 +1216,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="17">
         <v>105</v>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="I18" s="53">
         <f>-B13*C13-B14*C14</f>
-        <v>-870</v>
+        <v>-765</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="I19" s="45">
         <f>SUM(I14:I18)</f>
-        <v>12840</v>
+        <v>12945</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="I21" s="43">
         <f>I19-F19</f>
-        <v>2438</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="I22" s="44">
         <f>IF(I6&gt;0,I21/I6/B2,0)</f>
-        <v>23.219047619047618</v>
+        <v>24.219047619047618</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B25" s="28">
         <f>IF(I2&lt;&gt;0,(F3/I2)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>1038.9333333333334</v>
+        <v>1031.9333333333334</v>
       </c>
       <c r="C25" s="67"/>
       <c r="D25" s="20"/>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="I26" s="81">
         <f>I21/2+F15/I1</f>
-        <v>1464</v>
+        <v>1516.5</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B27" s="32">
         <f>IF(I4&lt;&gt;0,(F5/I4)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>1001.6</v>
+        <v>994.6</v>
       </c>
       <c r="C27" s="69"/>
       <c r="D27" s="20"/>

--- a/2017 Reisen/toskana/Kalkulation 2017.xlsx
+++ b/2017 Reisen/toskana/Kalkulation 2017.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -898,7 +898,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="I3" s="74">
         <f>B9-B5-B7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="F4" s="47">
         <f>(I3)*C9*B2</f>
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="60" t="s">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="I6" s="74">
         <f>SUM(I2:I5)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="F7" s="49">
         <f>I6*C12*B2</f>
-        <v>2835</v>
+        <v>3024</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="75" t="s">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="I7" s="76">
         <f>I6+I1</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -1122,7 +1122,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="14">
         <v>72</v>
@@ -1216,7 +1216,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" s="17">
         <v>105</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I15" s="34">
         <f>I3*F26</f>
-        <v>0</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F17" s="51">
         <f>C21*I6</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="19" t="s">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="F18" s="51">
         <f>(B8+B9)*C22</f>
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="52" t="s">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="I18" s="53">
         <f>-B13*C13-B14*C14</f>
-        <v>-765</v>
+        <v>-975</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="F19" s="45">
         <f>SUM(F3:F18)</f>
-        <v>10402</v>
+        <v>11107</v>
       </c>
       <c r="G19" s="63"/>
       <c r="H19" s="42" t="s">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="I19" s="45">
         <f>SUM(I14:I18)</f>
-        <v>12945</v>
+        <v>13780</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="F21" s="55">
         <f>SUM(F3:F6,F8,F9)+C15</f>
-        <v>6085</v>
+        <v>6589</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="39" t="s">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="I21" s="43">
         <f>I19-F19</f>
-        <v>2543</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="F22" s="49">
         <f>SUM(F7,F10)</f>
-        <v>3402</v>
+        <v>3591</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="18" t="s">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="I22" s="44">
         <f>IF(I6&gt;0,I21/I6/B2,0)</f>
-        <v>24.219047619047618</v>
+        <v>23.866071428571427</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F23" s="45">
         <f>SUM(F21:F22)</f>
-        <v>9487</v>
+        <v>10180</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="42"/>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B25" s="28">
         <f>IF(I2&lt;&gt;0,(F3/I2)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>1031.9333333333334</v>
+        <v>1031.1875</v>
       </c>
       <c r="C25" s="67"/>
       <c r="D25" s="20"/>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="B26" s="32">
         <f>IF(I3&lt;&gt;0,(F4/I3)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>0</v>
+        <v>1206.1875</v>
       </c>
       <c r="C26" s="68"/>
       <c r="D26" s="20"/>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="I26" s="81">
         <f>I21/2+F15/I1</f>
-        <v>1516.5</v>
+        <v>1581.5</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B27" s="32">
         <f>IF(I4&lt;&gt;0,(F5/I4)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>994.6</v>
+        <v>993.85416666666674</v>
       </c>
       <c r="C27" s="69"/>
       <c r="D27" s="20"/>

--- a/2017 Reisen/toskana/Kalkulation 2017.xlsx
+++ b/2017 Reisen/toskana/Kalkulation 2017.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12280" yWindow="1960" windowWidth="34000" windowHeight="24260" tabRatio="500"/>
+    <workbookView xWindow="7820" yWindow="9420" windowWidth="34000" windowHeight="24260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Toskana 2017" sheetId="1" r:id="rId1"/>
@@ -898,7 +898,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1216,7 +1216,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="17">
         <v>105</v>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="I18" s="53">
         <f>-B13*C13-B14*C14</f>
-        <v>-975</v>
+        <v>-870</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="I19" s="45">
         <f>SUM(I14:I18)</f>
-        <v>13780</v>
+        <v>13885</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="I21" s="43">
         <f>I19-F19</f>
-        <v>2673</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="I22" s="44">
         <f>IF(I6&gt;0,I21/I6/B2,0)</f>
-        <v>23.866071428571427</v>
+        <v>24.803571428571427</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B25" s="28">
         <f>IF(I2&lt;&gt;0,(F3/I2)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>1031.1875</v>
+        <v>1024.625</v>
       </c>
       <c r="C25" s="67"/>
       <c r="D25" s="20"/>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="B26" s="32">
         <f>IF(I3&lt;&gt;0,(F4/I3)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>1206.1875</v>
+        <v>1199.625</v>
       </c>
       <c r="C26" s="68"/>
       <c r="D26" s="20"/>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="I26" s="81">
         <f>I21/2+F15/I1</f>
-        <v>1581.5</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B27" s="32">
         <f>IF(I4&lt;&gt;0,(F5/I4)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>993.85416666666674</v>
+        <v>987.29166666666674</v>
       </c>
       <c r="C27" s="69"/>
       <c r="D27" s="20"/>

--- a/2017 Reisen/toskana/Kalkulation 2017.xlsx
+++ b/2017 Reisen/toskana/Kalkulation 2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="9420" windowWidth="34000" windowHeight="24260" tabRatio="500"/>
+    <workbookView xWindow="13780" yWindow="1620" windowWidth="34000" windowHeight="24260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Toskana 2017" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
   <si>
     <t>Anzahl Nächte</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>3BZ Preis</t>
+  </si>
+  <si>
+    <t>Vornächte</t>
+  </si>
+  <si>
+    <t>Anzahl Vornacht DZ</t>
   </si>
 </sst>
 </file>
@@ -298,7 +304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,12 +320,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,6 +341,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -508,7 +520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
@@ -573,18 +585,14 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -597,10 +605,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -611,9 +619,16 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -898,7 +913,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -918,34 +933,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="75" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="30"/>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="73" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="40"/>
       <c r="G1" s="30"/>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="73">
+      <c r="I1" s="69">
         <f>SUM(B4:B7)</f>
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="58">
         <v>7</v>
       </c>
       <c r="C2" s="13"/>
@@ -953,10 +968,10 @@
       <c r="E2" s="19"/>
       <c r="F2" s="41"/>
       <c r="G2" s="20"/>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="74">
+      <c r="I2" s="70">
         <f>B8-B4-B6</f>
         <v>12</v>
       </c>
@@ -965,10 +980,10 @@
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="58">
         <v>7</v>
       </c>
       <c r="C3" s="13"/>
@@ -981,19 +996,19 @@
         <v>3948</v>
       </c>
       <c r="G3" s="20"/>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="74">
+      <c r="I3" s="70">
         <f>B9-B5-B7</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="58">
         <v>2</v>
       </c>
       <c r="C4" s="13"/>
@@ -1006,20 +1021,20 @@
         <v>504</v>
       </c>
       <c r="G4" s="20"/>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="74">
+      <c r="I4" s="70">
         <f>B10</f>
         <v>3</v>
       </c>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="58">
         <v>1</v>
       </c>
       <c r="C5" s="13"/>
@@ -1032,67 +1047,69 @@
         <v>875</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="74">
+      <c r="I5" s="70">
         <f>B11</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="58">
         <v>0</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47">
-        <f>I5*B2*C11</f>
-        <v>0</v>
+      <c r="E6" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="83">
+        <f>B11/2*C11</f>
+        <v>94</v>
       </c>
       <c r="G6" s="20"/>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="74">
+      <c r="I6" s="70">
         <f>SUM(I2:I5)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="58">
         <v>0</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="86">
         <f>I6*C12*B2</f>
-        <v>3024</v>
+        <v>3402</v>
       </c>
       <c r="G7" s="20"/>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="76">
+      <c r="I7" s="72">
         <f>I6+I1</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="54" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="10">
@@ -1102,10 +1119,10 @@
         <v>94</v>
       </c>
       <c r="D8" s="20"/>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="84">
+      <c r="F8" s="80">
         <f>B2*(B4+B6)*C8/2</f>
         <v>658</v>
       </c>
@@ -1118,7 +1135,7 @@
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="54" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="10">
@@ -1128,10 +1145,10 @@
         <v>72</v>
       </c>
       <c r="D9" s="33"/>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="84">
+      <c r="F9" s="80">
         <f>(B5+B7)*C9*B2</f>
         <v>504</v>
       </c>
@@ -1141,7 +1158,7 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="54" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="10">
@@ -1151,10 +1168,10 @@
         <v>125</v>
       </c>
       <c r="D10" s="33"/>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="84">
+      <c r="F10" s="80">
         <f>I1*C12*B2</f>
         <v>567</v>
       </c>
@@ -1164,20 +1181,20 @@
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
-        <v>42</v>
+      <c r="A11" s="81" t="s">
+        <v>65</v>
       </c>
       <c r="B11" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="14">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D11" s="33"/>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="49">
         <f>C15</f>
         <v>100</v>
       </c>
@@ -1186,7 +1203,7 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="84" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -1196,15 +1213,15 @@
         <v>27</v>
       </c>
       <c r="D12" s="33"/>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="49">
         <f>C16</f>
         <v>0</v>
       </c>
       <c r="G12" s="20"/>
-      <c r="H12" s="77" t="s">
+      <c r="H12" s="73" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="31"/>
@@ -1222,16 +1239,20 @@
         <v>105</v>
       </c>
       <c r="D13" s="33"/>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="49">
         <f>C17</f>
         <v>0</v>
       </c>
       <c r="G13" s="20"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="34"/>
+      <c r="H13" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="34">
+        <v>120</v>
+      </c>
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1245,10 +1266,10 @@
         <v>40</v>
       </c>
       <c r="D14" s="33"/>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="49">
         <f>C18</f>
         <v>0</v>
       </c>
@@ -1262,7 +1283,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="55" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -1272,10 +1293,10 @@
         <v>100</v>
       </c>
       <c r="D15" s="33"/>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="49">
         <f>C20*(B5+B4)*B2</f>
         <v>735</v>
       </c>
@@ -1289,7 +1310,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="55" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -1299,10 +1320,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="33"/>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="49">
         <f>C19*(B6+B7)*B2</f>
         <v>0</v>
       </c>
@@ -1316,7 +1337,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="55" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -1326,12 +1347,12 @@
         <v>0</v>
       </c>
       <c r="D17" s="33"/>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="49">
         <f>C21*I6</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="19" t="s">
@@ -1343,7 +1364,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="55" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -1353,24 +1374,24 @@
         <v>0</v>
       </c>
       <c r="D18" s="33"/>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="49">
         <f>(B8+B9)*C22</f>
         <v>112</v>
       </c>
       <c r="G18" s="20"/>
-      <c r="H18" s="52" t="s">
+      <c r="H18" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="53">
+      <c r="I18" s="51">
         <f>-B13*C13-B14*C14</f>
         <v>-870</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="48" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -1385,19 +1406,19 @@
       </c>
       <c r="F19" s="45">
         <f>SUM(F3:F18)</f>
-        <v>11107</v>
-      </c>
-      <c r="G19" s="63"/>
+        <v>11589</v>
+      </c>
+      <c r="G19" s="59"/>
       <c r="H19" s="42" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="45">
-        <f>SUM(I14:I18)</f>
-        <v>13885</v>
+        <f>SUM(I13:I18)</f>
+        <v>14005</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="48" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -1414,7 +1435,7 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="48" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -1424,12 +1445,12 @@
         <v>5</v>
       </c>
       <c r="D21" s="20"/>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="53">
         <f>SUM(F3:F6,F8,F9)+C15</f>
-        <v>6589</v>
+        <v>6683</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="39" t="s">
@@ -1437,11 +1458,11 @@
       </c>
       <c r="I21" s="43">
         <f>I19-F19</f>
-        <v>2778</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="48" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -1451,12 +1472,12 @@
         <v>7</v>
       </c>
       <c r="D22" s="20"/>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="49">
+      <c r="F22" s="86">
         <f>SUM(F7,F10)</f>
-        <v>3591</v>
+        <v>3969</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="18" t="s">
@@ -1464,17 +1485,17 @@
       </c>
       <c r="I22" s="44">
         <f>IF(I6&gt;0,I21/I6/B2,0)</f>
-        <v>24.803571428571427</v>
+        <v>19.174603174603174</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="71">
+      <c r="C23" s="67">
         <v>40</v>
       </c>
       <c r="D23" s="20"/>
@@ -1483,7 +1504,7 @@
       </c>
       <c r="F23" s="45">
         <f>SUM(F21:F22)</f>
-        <v>10180</v>
+        <v>10652</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="42"/>
@@ -1507,9 +1528,9 @@
       </c>
       <c r="B25" s="28">
         <f>IF(I2&lt;&gt;0,(F3/I2)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>1024.625</v>
-      </c>
-      <c r="C25" s="67"/>
+        <v>1000.0000000000001</v>
+      </c>
+      <c r="C25" s="63"/>
       <c r="D25" s="20"/>
       <c r="E25" s="39" t="s">
         <v>27</v>
@@ -1527,9 +1548,9 @@
       </c>
       <c r="B26" s="32">
         <f>IF(I3&lt;&gt;0,(F4/I3)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>1199.625</v>
-      </c>
-      <c r="C26" s="68"/>
+        <v>1175</v>
+      </c>
+      <c r="C26" s="64"/>
       <c r="D26" s="20"/>
       <c r="E26" s="18" t="s">
         <v>28</v>
@@ -1538,12 +1559,12 @@
         <v>1045</v>
       </c>
       <c r="G26" s="20"/>
-      <c r="H26" s="80" t="s">
+      <c r="H26" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="81">
+      <c r="I26" s="77">
         <f>I21/2+F15/I1</f>
-        <v>1634</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1552,11 +1573,11 @@
       </c>
       <c r="B27" s="32">
         <f>IF(I4&lt;&gt;0,(F5/I4)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>987.29166666666674</v>
-      </c>
-      <c r="C27" s="69"/>
+        <v>962.66666666666674</v>
+      </c>
+      <c r="C27" s="65"/>
       <c r="D27" s="20"/>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="61" t="s">
         <v>63</v>
       </c>
       <c r="F27" s="12">
@@ -1573,11 +1594,11 @@
       </c>
       <c r="B28" s="35">
         <f>IF(I5&lt;&gt;0,(F6/I5)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="70"/>
+        <v>718.00000000000011</v>
+      </c>
+      <c r="C28" s="66"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="62" t="s">
         <v>62</v>
       </c>
       <c r="F28" s="36">
@@ -1596,7 +1617,7 @@
       <c r="F29" s="33"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
-      <c r="I29" s="64"/>
+      <c r="I29" s="60"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
@@ -1607,7 +1628,7 @@
       <c r="F30" s="33"/>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
-      <c r="I30" s="64"/>
+      <c r="I30" s="60"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="20"/>
@@ -1618,7 +1639,7 @@
       <c r="F31" s="33"/>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
-      <c r="I31" s="64"/>
+      <c r="I31" s="60"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
@@ -1629,7 +1650,7 @@
       <c r="F32" s="26"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
-      <c r="I32" s="64"/>
+      <c r="I32" s="60"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C37" s="7"/>
